--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_inverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_inverse_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="inverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="inverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="inverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="inverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="inverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>69.64575818129916</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7922806069875757</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6964575818129914</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.683984928215177</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.82933243367157</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.797888224820296</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7082933243367158</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6953982056404767</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.33069490220504</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5855406741301219</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7833069490220503</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7795066606880749</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>77.38726113547696</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7060322465375066</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7738726113547696</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7600892883498586</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.6278947049715</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9375715737541517</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.646278947049715</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.613926566059763</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>78.31642142233065</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5939747751069566</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7831642142233064</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7732679370841178</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>64.7930345418213</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.977876093153221</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.647930345418213</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6198443051787197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>66.06268220313325</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8372461789598068</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6606268220313325</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6413487555304679</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>67.37108452495264</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7509220972657203</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6737108452495264</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6627361824247391</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.77973857905344</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5948383375381431</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7777973857905345</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7679976357858619</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.7527833285755</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.13660222782443</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6175278332857551</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6089468679140769</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.12449934688016</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.702872225890557</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7212449934688017</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7122909528378146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.6019429233817</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1617293557879748</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9460194292338169</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9458878920808578</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.92674677116584</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2197394979137849</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9192674677116583</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9196323623998047</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.99115044247787</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1294181497263101</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9699115044247788</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9695811512372636</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75.50273502942643</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6616354843597705</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7550273502942643</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.743629312761805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>52.85599356395817</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.103010559082031</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5285599356395816</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5150526636738009</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>58.0373532643016</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9792722280447682</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5803735326430159</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.55753534663829</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>55.45722713864306</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.065919418881337</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5545722713864307</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5183928218112235</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>71.1652349933823</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8021250074108442</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.711652349933823</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6954223342948898</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.66170122578914</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9411193802952766</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6266170122578915</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5984483370899197</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>68.79722142925111</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7698074276248614</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6879722142925112</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6711145081652057</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>48.14384207475843</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.471829858856897</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4814384207475843</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4279858402632875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>52.25564234984731</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.222171823680401</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5225564234984732</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4918505260571622</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>58.77429735551345</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9362989534934363</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5877429735551345</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5791803368962325</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.05105580498101</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8899489452441534</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.62051055804981</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5983489077814947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55.62816287338126</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.044261040290197</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5562816287338126</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5241472711169102</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.04301075268817</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.017431155840556</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5204301075268817</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5176916188680092</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>91.44992603742247</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2436253935409089</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9144992603742248</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9128490913823327</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>88.59324042595524</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3263370097721539</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8859324042595524</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8854609860652431</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>80.84723916296853</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5586517557433883</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8084723916296854</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7969275594724561</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63.91740989685609</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8914539971867472</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6391740989685608</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6193605433050973</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_inverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_inverse_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="inverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="inverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="inverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="inverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="inverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="inverse_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="inverse_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="inverse_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="inverse_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.21828908554572</v>
+        <v>95.66388982603655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1422523950915396</v>
+        <v>0.106642276631222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9421828908554571</v>
+        <v>0.9566388982603655</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9415036535870438</v>
+        <v>0.9563559296786343</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.1519995847715</v>
+        <v>92.62571475531794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3083118729395967</v>
+        <v>0.2841143194707267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9115199958477149</v>
+        <v>0.9262571475531794</v>
       </c>
       <c r="E3" t="n">
-        <v>0.906115418070995</v>
+        <v>0.9133631610161892</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.31025354890613</v>
+        <v>96.40117994100294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1576938111090082</v>
+        <v>0.1285145295404315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9531025354890612</v>
+        <v>0.9640117994100296</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9502366149990831</v>
+        <v>0.9629462862876392</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.59882005899705</v>
+        <v>93.03834808259587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.159109611898748</v>
+        <v>0.1813735560940889</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9359882005899705</v>
+        <v>0.9303834808259588</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9347863168258049</v>
+        <v>0.9249451815274752</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.04511284699694</v>
+        <v>82.15667955605151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3138598252611701</v>
+        <v>0.4649149897236687</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8504511284699694</v>
+        <v>0.8215667955605153</v>
       </c>
       <c r="E6" t="n">
-        <v>0.845042067752896</v>
+        <v>0.8032258503505398</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.24501076998936</v>
+        <v>90.20666268739349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1614918799197767</v>
+        <v>0.3689010017784312</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9324501076998937</v>
+        <v>0.9020666268739349</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9262679552356931</v>
+        <v>0.885106172633755</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.15078850163063</v>
+        <v>91.94690265486726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2290457247813416</v>
+        <v>0.2024623696221776</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9115078850163064</v>
+        <v>0.9194690265486726</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9098388820885701</v>
+        <v>0.9137144704062201</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.95019853112916</v>
+        <v>94.24778761061947</v>
       </c>
       <c r="C9" t="n">
-        <v>0.175643119641154</v>
+        <v>0.1510233920153041</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9295019853112916</v>
+        <v>0.9424778761061947</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9278368853366399</v>
+        <v>0.941562331950762</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.15929203539824</v>
+        <v>89.88200589970502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1649065733179062</v>
+        <v>0.2711918484637863</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9415929203539823</v>
+        <v>0.8988200589970502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9414027717842872</v>
+        <v>0.8922149305115683</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.14749262536873</v>
+        <v>89.70501474926253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2487529295345439</v>
+        <v>0.2721768587679851</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9014749262536872</v>
+        <v>0.8970501474926253</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8889478119510091</v>
+        <v>0.8876750758399272</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.44924264050726</v>
+        <v>83.03834808259587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5578753933436625</v>
+        <v>0.6255780656075633</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8244924264050727</v>
+        <v>0.8303834808259587</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8121161103245413</v>
+        <v>0.819280530138457</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.71524840180278</v>
+        <v>82.30105796762948</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6247306218681236</v>
+        <v>0.6170168043269466</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8271524840180279</v>
+        <v>0.8230105796762948</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8120203705859043</v>
+        <v>0.809642628871581</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.99705014749263</v>
+        <v>99.14454277286136</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03699339344508796</v>
+        <v>0.03263308481831094</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9899705014749263</v>
+        <v>0.9914454277286137</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9899916124177063</v>
+        <v>0.9914735691054577</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.49852507374632</v>
+        <v>99.46902654867257</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01483205792668135</v>
+        <v>0.01330910744060626</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9949852507374631</v>
+        <v>0.9946902654867257</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9949963182329808</v>
+        <v>0.9947372893368455</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.99115044247787</v>
+        <v>94.45427728613569</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0687415776766476</v>
+        <v>0.1447824637422703</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9699115044247787</v>
+        <v>0.944542772861357</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9688022017109011</v>
+        <v>0.9398333987020469</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.10856495298404</v>
+        <v>91.61876256138318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2242827191836659</v>
+        <v>0.2576423112029013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9210856495298402</v>
+        <v>0.9161876256138318</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9166603327269371</v>
+        <v>0.9090717870904732</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.68002318359156</v>
+        <v>87.55317952577445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2441576742489512</v>
+        <v>0.3267429908116658</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9068002318359156</v>
+        <v>0.8755317952577444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9070274074525898</v>
+        <v>0.8722053011041628</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.06207666156283</v>
+        <v>81.60555022102267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6907008649897761</v>
+        <v>0.4301906707376474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7606207666156282</v>
+        <v>0.8160555022102267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7432611289709208</v>
+        <v>0.8073488974409871</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.61859531656849</v>
+        <v>90.3255218470748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2701374122264193</v>
+        <v>0.2464327892793032</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8961859531656848</v>
+        <v>0.9032552184707481</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8938684726589627</v>
+        <v>0.9036354018074413</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.68765300737896</v>
+        <v>87.22748466682238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1958747163337345</v>
+        <v>0.3510544072138145</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9268765300737896</v>
+        <v>0.8722748466682237</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9266308108580708</v>
+        <v>0.8596459614183093</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.65709910985389</v>
+        <v>73.25867870829333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.469453447626438</v>
+        <v>0.7689777653043469</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8065709910985388</v>
+        <v>0.7325867870829332</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8005681229647656</v>
+        <v>0.7150464779955292</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.32760664019585</v>
+        <v>86.31631761520428</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2548281805745016</v>
+        <v>0.3875878523103893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9132760664019586</v>
+        <v>0.8631631761520427</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8989379590775919</v>
+        <v>0.8519334625637625</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.36314327978616</v>
+        <v>83.8943243453663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5165773142725432</v>
+        <v>0.5235523131365578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7936314327978616</v>
+        <v>0.838943243453663</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7828186585716926</v>
+        <v>0.8237966138038241</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.01958494450643</v>
+        <v>89.94117596172977</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4133986380998976</v>
+        <v>0.2384227236567919</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8401958494450644</v>
+        <v>0.8994117596172977</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8307564223462853</v>
+        <v>0.8986257453126516</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.64081004160934</v>
+        <v>87.17246688985199</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2972250260567914</v>
+        <v>0.3054658262641169</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8764081004160935</v>
+        <v>0.8717246688985198</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8745054062633653</v>
+        <v>0.8680453906128026</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.41347243488266</v>
+        <v>85.45774617427486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5622974986608218</v>
+        <v>0.3722183008416323</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7741347243488266</v>
+        <v>0.8545774617427486</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7592147079785615</v>
+        <v>0.848941115109433</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.9415219854843</v>
+        <v>73.89761157103435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6616313160183684</v>
+        <v>0.8055445405926245</v>
       </c>
       <c r="D12" t="n">
-        <v>0.799415219854843</v>
+        <v>0.7389761157103435</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7967784065378869</v>
+        <v>0.7310677766732907</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.77145131013245</v>
+        <v>79.411932629175</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6742826057908435</v>
+        <v>0.5502788856198702</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7977145131013244</v>
+        <v>0.79411932629175</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7776932107422357</v>
+        <v>0.7854247945583805</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.37463126843657</v>
+        <v>95.87020648967551</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07358411103994816</v>
+        <v>0.1065903015095197</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9737463126843657</v>
+        <v>0.9587020648967552</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9735044653842774</v>
+        <v>0.9581881596549031</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.52212389380531</v>
+        <v>95.69321533923303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06220552116653076</v>
+        <v>0.1324883742419085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9752212389380531</v>
+        <v>0.9569321533923304</v>
       </c>
       <c r="E15" t="n">
-        <v>0.975429303409145</v>
+        <v>0.9572611424441104</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.76106194690266</v>
+        <v>94.42477876106196</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05812893764839373</v>
+        <v>0.1449436958634275</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9876106194690266</v>
+        <v>0.9442477876106194</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9875676809563861</v>
+        <v>0.9422060437950099</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.85605700164651</v>
+        <v>86.13667938303963</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3629655509835973</v>
+        <v>0.3793660958255744</v>
       </c>
       <c r="D17" t="n">
-        <v>0.868560570016465</v>
+        <v>0.8613667938303963</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8619041442781826</v>
+        <v>0.85489148561964</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.90813934376595</v>
+        <v>84.46656112942154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4805801572899024</v>
+        <v>0.3975028049200773</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8090813934376595</v>
+        <v>0.8446656112942155</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8036726253045146</v>
+        <v>0.8418755233116382</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.25416309829669</v>
+        <v>81.73011877265374</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4365187622141093</v>
+        <v>0.4618311329356705</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8125416309829671</v>
+        <v>0.8173011877265374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8067061678125359</v>
+        <v>0.8133189541420981</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.72876928001108</v>
+        <v>88.35015873839738</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3690020664168211</v>
+        <v>0.3102277040093516</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8572876928001107</v>
+        <v>0.8835015873839739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8560754622117305</v>
+        <v>0.8827270870907353</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.32968278272304</v>
+        <v>84.81241187207502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2197390817183381</v>
+        <v>0.3919911369991799</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9132968278272303</v>
+        <v>0.8481241187207502</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9126944806903318</v>
+        <v>0.8435530993689918</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.64823225114404</v>
+        <v>71.20277857074889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6729902815849831</v>
+        <v>0.873840655386448</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7564823225114404</v>
+        <v>0.7120277857074888</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7395127606563577</v>
+        <v>0.6847273917231105</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.56356023841036</v>
+        <v>81.95901348627584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3199294591943423</v>
+        <v>0.5072983328253031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8756356023841037</v>
+        <v>0.8195901348627583</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8674615273152954</v>
+        <v>0.8064005448165743</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.35446673414131</v>
+        <v>77.77385617522643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6282430080076058</v>
+        <v>0.533785745606292</v>
       </c>
       <c r="D8" t="n">
-        <v>0.763544667341413</v>
+        <v>0.7777385617522643</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7447634971444442</v>
+        <v>0.7638459008552436</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.21304682566458</v>
+        <v>79.59982352788519</v>
       </c>
       <c r="C9" t="n">
-        <v>1.111137247737497</v>
+        <v>0.4739294932456687</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6821304682566458</v>
+        <v>0.7959982352788518</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6450046819878971</v>
+        <v>0.7932607467113634</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.69734167250581</v>
+        <v>80.30069464268722</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7039995343734821</v>
+        <v>0.5145444827775161</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7269734167250582</v>
+        <v>0.8030069464268722</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7139511494713956</v>
+        <v>0.7837489829292832</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.74697878009326</v>
+        <v>74.52503914393722</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4632462191279046</v>
+        <v>0.6748647188988495</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8074697878009325</v>
+        <v>0.7452503914393722</v>
       </c>
       <c r="E11" t="n">
-        <v>0.794904065010533</v>
+        <v>0.7349567857950803</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.2895353766036</v>
+        <v>71.80390833830742</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9131439652308473</v>
+        <v>0.8168664713933443</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7028953537660361</v>
+        <v>0.7180390833830742</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6768950946839554</v>
+        <v>0.7062645637409721</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.54689054403585</v>
+        <v>78.59566259223695</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7520777583122253</v>
+        <v>0.5545221953342359</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7054689054403585</v>
+        <v>0.7859566259223696</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6938861783429989</v>
+        <v>0.7825028965577052</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.72566371681415</v>
+        <v>94.77945310945597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1039624216579493</v>
+        <v>0.1618679449990547</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9672566371681416</v>
+        <v>0.9477945310945597</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9671173354629758</v>
+        <v>0.947475985159369</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.16224188790561</v>
+        <v>91.50771200442911</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1244288619758057</v>
+        <v>0.212593295275777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9516224188790561</v>
+        <v>0.9150771200442911</v>
       </c>
       <c r="E15" t="n">
-        <v>0.951549797200346</v>
+        <v>0.9136417267891499</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.11209439528024</v>
+        <v>97.22713864306785</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07917056673783615</v>
+        <v>0.091248321181835</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9811209439528025</v>
+        <v>0.9722713864306785</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9810248712646585</v>
+        <v>0.9720863649331533</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.08538712849304</v>
+        <v>82.57562204978703</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4918779594386432</v>
+        <v>0.4651276290525735</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8208538712849305</v>
+        <v>0.8257562204978707</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8103479796373314</v>
+        <v>0.8180257702616311</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.64575818129916</v>
+        <v>79.5927300409173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7922806069875757</v>
+        <v>0.5337208864744752</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6964575818129914</v>
+        <v>0.7959273004091731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.683984928215177</v>
+        <v>0.7914278998047941</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.82933243367157</v>
+        <v>76.51735741658665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.797888224820296</v>
+        <v>0.6763667288876605</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7082933243367158</v>
+        <v>0.7651735741658665</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6953982056404767</v>
+        <v>0.7569074757026705</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.33069490220504</v>
+        <v>84.99078711753562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5855406741301219</v>
+        <v>0.3805507201080521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7833069490220503</v>
+        <v>0.8499078711753562</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7795066606880749</v>
+        <v>0.8469946764391356</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.38726113547696</v>
+        <v>80.65467694357218</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7060322465375066</v>
+        <v>0.5277218221997222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7738726113547696</v>
+        <v>0.8065467694357217</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7600892883498586</v>
+        <v>0.796399362815732</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.6278947049715</v>
+        <v>64.89199733561709</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9375715737541517</v>
+        <v>0.9397522176926334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.646278947049715</v>
+        <v>0.6489199733561708</v>
       </c>
       <c r="E6" t="n">
-        <v>0.613926566059763</v>
+        <v>0.605616552780643</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78.31642142233065</v>
+        <v>78.7368402840855</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5939747751069566</v>
+        <v>0.8240186917285124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7831642142233064</v>
+        <v>0.787368402840855</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7732679370841178</v>
+        <v>0.7576607379856305</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.7930345418213</v>
+        <v>78.07887611484529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.977876093153221</v>
+        <v>0.5268580422426263</v>
       </c>
       <c r="D8" t="n">
-        <v>0.647930345418213</v>
+        <v>0.7807887611484527</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6198443051787197</v>
+        <v>0.7603775651713388</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.06268220313325</v>
+        <v>74.77088902153133</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8372461789598068</v>
+        <v>0.6156384064505498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6606268220313325</v>
+        <v>0.7477088902153133</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6413487555304679</v>
+        <v>0.7430439743751079</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.37108452495264</v>
+        <v>80.45631882628743</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7509220972657203</v>
+        <v>0.4374502464508017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6737108452495264</v>
+        <v>0.8045631882628742</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6627361824247391</v>
+        <v>0.8037307369187889</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.77973857905344</v>
+        <v>77.71866538637877</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5948383375381431</v>
+        <v>0.5261162048438563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7777973857905345</v>
+        <v>0.7771866538637877</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7679976357858619</v>
+        <v>0.7703348176806056</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.7527833285755</v>
+        <v>71.60157094784556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.13660222782443</v>
+        <v>0.8556236087965468</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6175278332857551</v>
+        <v>0.7160157094784557</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6089468679140769</v>
+        <v>0.7103835079638235</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.12449934688016</v>
+        <v>72.1415410167908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.702872225890557</v>
+        <v>0.7417522722079108</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7212449934688017</v>
+        <v>0.721415410167908</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7122909528378146</v>
+        <v>0.7081517323709303</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.6019429233817</v>
+        <v>90.08849557522123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1617293557879748</v>
+        <v>0.3229484525082323</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9460194292338169</v>
+        <v>0.9008849557522124</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9458878920808578</v>
+        <v>0.9012344295078044</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.92674677116584</v>
+        <v>85.7920916270902</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2197394979137849</v>
+        <v>0.4450689597160817</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9192674677116583</v>
+        <v>0.8579209162709021</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9196323623998047</v>
+        <v>0.8514913008200751</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.99115044247787</v>
+        <v>96.96182492928139</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1294181497263101</v>
+        <v>0.1051379070837963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9699115044247788</v>
+        <v>0.9696182492928139</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9695811512372636</v>
+        <v>0.9693303026605383</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.50273502942643</v>
+        <v>79.53297750557243</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6616354843597705</v>
+        <v>0.5639150111594304</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7550273502942643</v>
+        <v>0.7953297750557244</v>
       </c>
       <c r="E17" t="n">
-        <v>0.743629312761805</v>
+        <v>0.7848723381998414</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.85599356395817</v>
+        <v>75.7555861209872</v>
       </c>
       <c r="C2" t="n">
-        <v>1.103010559082031</v>
+        <v>0.6450888224256536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5285599356395816</v>
+        <v>0.7575558612098721</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5150526636738009</v>
+        <v>0.7474698938866391</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.0373532643016</v>
+        <v>73.31205287242969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9792722280447682</v>
+        <v>0.7084164274080346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5803735326430159</v>
+        <v>0.733120528724297</v>
       </c>
       <c r="E3" t="n">
-        <v>0.55753534663829</v>
+        <v>0.7190684642293044</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.45722713864306</v>
+        <v>80.30121367831902</v>
       </c>
       <c r="C4" t="n">
-        <v>1.065919418881337</v>
+        <v>0.5528476034601529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5545722713864307</v>
+        <v>0.8030121367831903</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5183928218112235</v>
+        <v>0.7990765468902779</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.1652349933823</v>
+        <v>73.5036635265011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8021250074108442</v>
+        <v>0.7106162869061033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.711652349933823</v>
+        <v>0.735036635265011</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6954223342948898</v>
+        <v>0.7336928207751877</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.66170122578914</v>
+        <v>61.01929947490895</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9411193802952766</v>
+        <v>0.979838688733677</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6266170122578915</v>
+        <v>0.6101929947490895</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5984483370899197</v>
+        <v>0.5839456550637315</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.79722142925111</v>
+        <v>71.91852870699574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7698074276248614</v>
+        <v>0.6974149349456031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6879722142925112</v>
+        <v>0.7191852870699573</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6711145081652057</v>
+        <v>0.710991498721228</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.14384207475843</v>
+        <v>65.45489147829998</v>
       </c>
       <c r="C8" t="n">
-        <v>1.471829858856897</v>
+        <v>0.9929216677943865</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4814384207475843</v>
+        <v>0.6545489147829999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4279858402632875</v>
+        <v>0.6328450421837235</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52.25564234984731</v>
+        <v>71.91264630316871</v>
       </c>
       <c r="C9" t="n">
-        <v>1.222171823680401</v>
+        <v>0.6311544305334488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5225564234984732</v>
+        <v>0.7191264630316871</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4918505260571622</v>
+        <v>0.715767853554819</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.77429735551345</v>
+        <v>68.78320746719263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9362989534934363</v>
+        <v>0.8036029929916063</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5877429735551345</v>
+        <v>0.6878320746719263</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5791803368962325</v>
+        <v>0.6773262163372177</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.05105580498101</v>
+        <v>72.14379017119525</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8899489452441534</v>
+        <v>0.6607231207114335</v>
       </c>
       <c r="D11" t="n">
-        <v>0.62051055804981</v>
+        <v>0.7214379017119525</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5983489077814947</v>
+        <v>0.7057866618154555</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.62816287338126</v>
+        <v>60.88175503248299</v>
       </c>
       <c r="C12" t="n">
-        <v>1.044261040290197</v>
+        <v>1.067153876957794</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5562816287338126</v>
+        <v>0.6088175503248298</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5241472711169102</v>
+        <v>0.6017471970710876</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04301075268817</v>
+        <v>70.54896668656303</v>
       </c>
       <c r="C13" t="n">
-        <v>1.017431155840556</v>
+        <v>0.735797792673111</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5204301075268817</v>
+        <v>0.7054896668656303</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5176916188680092</v>
+        <v>0.6916411762804169</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.44992603742247</v>
+        <v>87.85127899030269</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2436253935409089</v>
+        <v>0.3800559808965772</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9144992603742248</v>
+        <v>0.8785127899030268</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9128490913823327</v>
+        <v>0.8767306596910638</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.59324042595524</v>
+        <v>86.64910596112422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3263370097721539</v>
+        <v>0.3186150454375213</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8859324042595524</v>
+        <v>0.8664910596112423</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8854609860652431</v>
+        <v>0.8656367880992544</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.84723916296853</v>
+        <v>88.29842818709504</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5586517557433883</v>
+        <v>0.3245426342334819</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8084723916296854</v>
+        <v>0.8829842818709505</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7969275594724561</v>
+        <v>0.8794020515636388</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.91740989685609</v>
+        <v>73.88896097717108</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8914539971867472</v>
+        <v>0.680586020407239</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6391740989685608</v>
+        <v>0.7388896097717108</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6193605433050973</v>
+        <v>0.7294085684108697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>75.89408212873813</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5895776772250733</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7589408212873814</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7539761845002544</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69.21141186342443</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7522163203893191</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6921141186342442</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6804806109517589</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.6326265798147</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4545697399415076</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8163262657981469</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8166185639131779</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.5747627574633</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.022941067566474</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.625747627574633</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6122577547627335</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>57.35101514718986</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.083302610491713</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5735101514718985</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5333819267543515</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>62.45746070467737</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9916743294103071</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6245746070467738</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6097933797677747</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>70.47725326343654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7109366734822591</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7047725326343655</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6939635113012751</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>60.50484865786036</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9447383711735406</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6050484865786036</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5804968891288063</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>65.79546535869687</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7749209259947142</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6579546535869688</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6461942190457065</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68.88433290945423</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7044860096027453</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6888433290945424</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6756021622502676</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.87928096263808</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.223626966805508</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5487928096263809</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5327356347225215</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.314310677428</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9080331857005755</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6431431067742801</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6219769108024574</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82.55676952222771</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.522772450869282</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8255676952222771</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8214732930319286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.80072491976574</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4801427799066005</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8380072491976573</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8299392900959267</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>80.89680706580506</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5808581390728553</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8089680706580508</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8002746115681717</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>69.41541016790802</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7829864831754983</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6941541016790802</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6806109961731408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>68.39150857706382</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7718017938236396</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6839150857706382</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.67276094721308</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.37764167510099</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.571713687844264</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7537764167510099</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7500860379014961</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.3025804721494</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5727868165199956</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7830258047214941</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7703221823378577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.48174292165157</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.032539399464925</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5948174292165158</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5635118435071222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>59.01115061548975</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8911362310250601</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5901115061548976</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5575727578399344</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.10208565818043</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8860371244450411</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6110208565818043</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.608059910721592</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>59.06997465375999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9704447900255522</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5906997465375998</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5519424253362082</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>62.99483559546363</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8566129664580027</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6299483559546364</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5989113465687026</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59.10414449951988</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9436057833333811</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.591041444995199</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5576670391885343</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67.4527461310219</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.840269130654633</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.674527461310219</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6647492253086258</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>58.26555593041462</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9659504798551402</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5826555593041463</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5700706860864823</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>59.03753492677272</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9610496088862419</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5903753492677273</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5677800795278248</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>79.19566778259328</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5862575218081474</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7919566778259328</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7880822495835427</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>80.97751710654936</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4999236898031086</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8097751710654937</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8072238033353332</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.78321611778649</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2598736193031073</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8978321611778648</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8988317760252784</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>67.83652684423453</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7740001762166826</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6783652684423452</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6618381540321077</v>
       </c>
     </row>
   </sheetData>
